--- a/natmiOut/YoungD4/LR-pairs_lrc2p/C3-Lrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/C3-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.05211101684487</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H2">
-        <v>3.05211101684487</v>
+        <v>12.461035</v>
       </c>
       <c r="I2">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J2">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N2">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q2">
-        <v>15.86739223052312</v>
+        <v>28.01546517181277</v>
       </c>
       <c r="R2">
-        <v>15.86739223052312</v>
+        <v>252.139186546315</v>
       </c>
       <c r="S2">
-        <v>0.0001569231961066296</v>
+        <v>0.0002379447764689621</v>
       </c>
       <c r="T2">
-        <v>0.0001569231961066296</v>
+        <v>0.0002379447764689621</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.05211101684487</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H3">
-        <v>3.05211101684487</v>
+        <v>12.461035</v>
       </c>
       <c r="I3">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J3">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N3">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P3">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q3">
-        <v>555.6349097896629</v>
+        <v>758.1778940548494</v>
       </c>
       <c r="R3">
-        <v>555.6349097896629</v>
+        <v>6823.601046493644</v>
       </c>
       <c r="S3">
-        <v>0.005495043208479266</v>
+        <v>0.006439460077432521</v>
       </c>
       <c r="T3">
-        <v>0.005495043208479266</v>
+        <v>0.006439460077432522</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.05211101684487</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H4">
-        <v>3.05211101684487</v>
+        <v>12.461035</v>
       </c>
       <c r="I4">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J4">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N4">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q4">
-        <v>759.9008662313654</v>
+        <v>1034.817988386556</v>
       </c>
       <c r="R4">
-        <v>759.9008662313654</v>
+        <v>9313.361895479004</v>
       </c>
       <c r="S4">
-        <v>0.007515165121073646</v>
+        <v>0.00878905752314401</v>
       </c>
       <c r="T4">
-        <v>0.007515165121073646</v>
+        <v>0.008789057523144012</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.05211101684487</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H5">
-        <v>3.05211101684487</v>
+        <v>12.461035</v>
       </c>
       <c r="I5">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J5">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N5">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q5">
-        <v>555.2145230972679</v>
+        <v>776.4516031292294</v>
       </c>
       <c r="R5">
-        <v>555.2145230972679</v>
+        <v>6988.064428163065</v>
       </c>
       <c r="S5">
-        <v>0.005490885724854175</v>
+        <v>0.006594664840026896</v>
       </c>
       <c r="T5">
-        <v>0.005490885724854175</v>
+        <v>0.006594664840026896</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.05211101684487</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H6">
-        <v>3.05211101684487</v>
+        <v>12.461035</v>
       </c>
       <c r="I6">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J6">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N6">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q6">
-        <v>47.26783824488761</v>
+        <v>72.52505685670444</v>
       </c>
       <c r="R6">
-        <v>47.26783824488761</v>
+        <v>652.72551171034</v>
       </c>
       <c r="S6">
-        <v>0.0004674630930324213</v>
+        <v>0.0006159797217834551</v>
       </c>
       <c r="T6">
-        <v>0.0004674630930324213</v>
+        <v>0.0006159797217834551</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>130.371518409563</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H7">
-        <v>130.371518409563</v>
+        <v>421.767242</v>
       </c>
       <c r="I7">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J7">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N7">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q7">
-        <v>677.7787593165211</v>
+        <v>948.2362804423975</v>
       </c>
       <c r="R7">
-        <v>677.7787593165211</v>
+        <v>8534.126523981578</v>
       </c>
       <c r="S7">
-        <v>0.006703004981533006</v>
+        <v>0.008053689931825137</v>
       </c>
       <c r="T7">
-        <v>0.006703004981533006</v>
+        <v>0.008053689931825139</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>130.371518409563</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H8">
-        <v>130.371518409563</v>
+        <v>421.767242</v>
       </c>
       <c r="I8">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J8">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N8">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P8">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q8">
-        <v>23734.05373226657</v>
+        <v>25661.96141178338</v>
       </c>
       <c r="R8">
-        <v>23734.05373226657</v>
+        <v>230957.6527060504</v>
       </c>
       <c r="S8">
-        <v>0.2347218442781864</v>
+        <v>0.2179556767818902</v>
       </c>
       <c r="T8">
-        <v>0.2347218442781864</v>
+        <v>0.2179556767818902</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>130.371518409563</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H9">
-        <v>130.371518409563</v>
+        <v>421.767242</v>
       </c>
       <c r="I9">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J9">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N9">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q9">
-        <v>32459.31397139632</v>
+        <v>35025.36738993075</v>
       </c>
       <c r="R9">
-        <v>32459.31397139632</v>
+        <v>315228.3065093768</v>
       </c>
       <c r="S9">
-        <v>0.3210117464684468</v>
+        <v>0.2974822357304831</v>
       </c>
       <c r="T9">
-        <v>0.3210117464684468</v>
+        <v>0.2974822357304832</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>130.371518409563</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H10">
-        <v>130.371518409563</v>
+        <v>421.767242</v>
       </c>
       <c r="I10">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J10">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N10">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q10">
-        <v>23716.09683256528</v>
+        <v>26280.46957562463</v>
       </c>
       <c r="R10">
-        <v>23716.09683256528</v>
+        <v>236524.2261806217</v>
       </c>
       <c r="S10">
-        <v>0.2345442565528466</v>
+        <v>0.2232088748240026</v>
       </c>
       <c r="T10">
-        <v>0.2345442565528466</v>
+        <v>0.2232088748240026</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>130.371518409563</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H11">
-        <v>130.371518409563</v>
+        <v>421.767242</v>
       </c>
       <c r="I11">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J11">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N11">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q11">
-        <v>2019.054945876115</v>
+        <v>2454.747395087601</v>
       </c>
       <c r="R11">
-        <v>2019.054945876115</v>
+        <v>22092.72655578841</v>
       </c>
       <c r="S11">
-        <v>0.0199677773523679</v>
+        <v>0.02084899596097236</v>
       </c>
       <c r="T11">
-        <v>0.0199677773523679</v>
+        <v>0.02084899596097236</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.7269460873118</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H12">
-        <v>6.7269460873118</v>
+        <v>21.36892</v>
       </c>
       <c r="I12">
-        <v>0.04215314398949194</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J12">
-        <v>0.04215314398949194</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N12">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q12">
-        <v>34.97221807852227</v>
+        <v>48.04257704269778</v>
       </c>
       <c r="R12">
-        <v>34.97221807852227</v>
+        <v>432.38319338428</v>
       </c>
       <c r="S12">
-        <v>0.0003458635266646359</v>
+        <v>0.0004080417792569506</v>
       </c>
       <c r="T12">
-        <v>0.0003458635266646359</v>
+        <v>0.0004080417792569506</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.7269460873118</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H13">
-        <v>6.7269460873118</v>
+        <v>21.36892</v>
       </c>
       <c r="I13">
-        <v>0.04215314398949194</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J13">
-        <v>0.04215314398949194</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N13">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P13">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q13">
-        <v>1224.636345714353</v>
+        <v>1300.168305748805</v>
       </c>
       <c r="R13">
-        <v>1224.636345714353</v>
+        <v>11701.51475173924</v>
       </c>
       <c r="S13">
-        <v>0.01211124340067467</v>
+        <v>0.01104276709260903</v>
       </c>
       <c r="T13">
-        <v>0.01211124340067467</v>
+        <v>0.01104276709260903</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.7269460873118</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H14">
-        <v>6.7269460873118</v>
+        <v>21.36892</v>
       </c>
       <c r="I14">
-        <v>0.04215314398949194</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J14">
-        <v>0.04215314398949194</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N14">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q14">
-        <v>1674.844765025711</v>
+        <v>1774.567105251951</v>
       </c>
       <c r="R14">
-        <v>1674.844765025711</v>
+        <v>15971.10394726756</v>
       </c>
       <c r="S14">
-        <v>0.01656365391943343</v>
+        <v>0.0150719957922807</v>
       </c>
       <c r="T14">
-        <v>0.01656365391943343</v>
+        <v>0.0150719957922807</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.7269460873118</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H15">
-        <v>6.7269460873118</v>
+        <v>21.36892</v>
       </c>
       <c r="I15">
-        <v>0.04215314398949194</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J15">
-        <v>0.04215314398949194</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N15">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q15">
-        <v>1223.709800578885</v>
+        <v>1331.505143123365</v>
       </c>
       <c r="R15">
-        <v>1223.709800578885</v>
+        <v>11983.54628811028</v>
       </c>
       <c r="S15">
-        <v>0.01210208017953018</v>
+        <v>0.01130892140125981</v>
       </c>
       <c r="T15">
-        <v>0.01210208017953018</v>
+        <v>0.01130892140125981</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.7269460873118</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H16">
-        <v>6.7269460873118</v>
+        <v>21.36892</v>
       </c>
       <c r="I16">
-        <v>0.04215314398949194</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J16">
-        <v>0.04215314398949194</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N16">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q16">
-        <v>104.1797620670543</v>
+        <v>124.3702580055645</v>
       </c>
       <c r="R16">
-        <v>104.1797620670543</v>
+        <v>1119.33232205008</v>
       </c>
       <c r="S16">
-        <v>0.001030302963189019</v>
+        <v>0.001056318467640361</v>
       </c>
       <c r="T16">
-        <v>0.001030302963189019</v>
+        <v>0.001056318467640361</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.0822971237213</v>
+        <v>30.91341533333334</v>
       </c>
       <c r="H17">
-        <v>19.0822971237213</v>
+        <v>92.74024600000001</v>
       </c>
       <c r="I17">
-        <v>0.1195756302884144</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="J17">
-        <v>0.1195756302884144</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N17">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q17">
-        <v>99.20553068036017</v>
+        <v>208.5028355861571</v>
       </c>
       <c r="R17">
-        <v>99.20553068036017</v>
+        <v>1876.525520275414</v>
       </c>
       <c r="S17">
-        <v>0.0009811094803511508</v>
+        <v>0.001770884770337822</v>
       </c>
       <c r="T17">
-        <v>0.0009811094803511508</v>
+        <v>0.001770884770337822</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.0822971237213</v>
+        <v>30.91341533333334</v>
       </c>
       <c r="H18">
-        <v>19.0822971237213</v>
+        <v>92.74024600000001</v>
       </c>
       <c r="I18">
-        <v>0.1195756302884144</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="J18">
-        <v>0.1195756302884144</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N18">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P18">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q18">
-        <v>3473.920307092597</v>
+        <v>5642.677707462397</v>
       </c>
       <c r="R18">
-        <v>3473.920307092597</v>
+        <v>50784.09936716157</v>
       </c>
       <c r="S18">
-        <v>0.03435590862624831</v>
+        <v>0.04792516124770303</v>
       </c>
       <c r="T18">
-        <v>0.03435590862624831</v>
+        <v>0.04792516124770304</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.0822971237213</v>
+        <v>30.91341533333334</v>
       </c>
       <c r="H19">
-        <v>19.0822971237213</v>
+        <v>92.74024600000001</v>
       </c>
       <c r="I19">
-        <v>0.1195756302884144</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="J19">
-        <v>0.1195756302884144</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N19">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q19">
-        <v>4751.024466007206</v>
+        <v>7701.549253990087</v>
       </c>
       <c r="R19">
-        <v>4751.024466007206</v>
+        <v>69313.94328591079</v>
       </c>
       <c r="S19">
-        <v>0.04698604113109927</v>
+        <v>0.06541185036431776</v>
       </c>
       <c r="T19">
-        <v>0.04698604113109927</v>
+        <v>0.06541185036431778</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.0822971237213</v>
+        <v>30.91341533333334</v>
       </c>
       <c r="H20">
-        <v>19.0822971237213</v>
+        <v>92.74024600000001</v>
       </c>
       <c r="I20">
-        <v>0.1195756302884144</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="J20">
-        <v>0.1195756302884144</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N20">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q20">
-        <v>3471.291980754903</v>
+        <v>5778.678310533525</v>
       </c>
       <c r="R20">
-        <v>3471.291980754903</v>
+        <v>52008.10479480172</v>
       </c>
       <c r="S20">
-        <v>0.0343299153588399</v>
+        <v>0.04908026015107454</v>
       </c>
       <c r="T20">
-        <v>0.0343299153588399</v>
+        <v>0.04908026015107454</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.0822971237213</v>
+        <v>30.91341533333334</v>
       </c>
       <c r="H21">
-        <v>19.0822971237213</v>
+        <v>92.74024600000001</v>
       </c>
       <c r="I21">
-        <v>0.1195756302884144</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="J21">
-        <v>0.1195756302884144</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N21">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O21">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P21">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q21">
-        <v>295.526253405214</v>
+        <v>539.7618748406339</v>
       </c>
       <c r="R21">
-        <v>295.526253405214</v>
+        <v>4857.856873565705</v>
       </c>
       <c r="S21">
-        <v>0.002922655691875781</v>
+        <v>0.004584379301495356</v>
       </c>
       <c r="T21">
-        <v>0.002922655691875781</v>
+        <v>0.004584379301495357</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.350623411838624</v>
+        <v>0.3870006666666667</v>
       </c>
       <c r="H22">
-        <v>0.350623411838624</v>
+        <v>1.161002</v>
       </c>
       <c r="I22">
-        <v>0.002197115745166725</v>
+        <v>0.002112839463995207</v>
       </c>
       <c r="J22">
-        <v>0.002197115745166725</v>
+        <v>0.002112839463995207</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N22">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O22">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P22">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q22">
-        <v>1.822829893848015</v>
+        <v>2.610217457490889</v>
       </c>
       <c r="R22">
-        <v>1.822829893848015</v>
+        <v>23.491957117418</v>
       </c>
       <c r="S22">
-        <v>1.80271772919997E-05</v>
+        <v>2.21694555363995E-05</v>
       </c>
       <c r="T22">
-        <v>1.80271772919997E-05</v>
+        <v>2.216945553639951E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.350623411838624</v>
+        <v>0.3870006666666667</v>
       </c>
       <c r="H23">
-        <v>0.350623411838624</v>
+        <v>1.161002</v>
       </c>
       <c r="I23">
-        <v>0.002197115745166725</v>
+        <v>0.002112839463995207</v>
       </c>
       <c r="J23">
-        <v>0.002197115745166725</v>
+        <v>0.002112839463995207</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N23">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P23">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q23">
-        <v>63.83077376015373</v>
+        <v>70.63988275078823</v>
       </c>
       <c r="R23">
-        <v>63.83077376015373</v>
+        <v>635.7589447570941</v>
       </c>
       <c r="S23">
-        <v>0.0006312649793287606</v>
+        <v>0.0005999683035012189</v>
       </c>
       <c r="T23">
-        <v>0.0006312649793287606</v>
+        <v>0.0005999683035012192</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.350623411838624</v>
+        <v>0.3870006666666667</v>
       </c>
       <c r="H24">
-        <v>0.350623411838624</v>
+        <v>1.161002</v>
       </c>
       <c r="I24">
-        <v>0.002197115745166725</v>
+        <v>0.002112839463995207</v>
       </c>
       <c r="J24">
-        <v>0.002197115745166725</v>
+        <v>0.002112839463995207</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N24">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O24">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P24">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q24">
-        <v>87.29663924630088</v>
+        <v>96.41460393560956</v>
       </c>
       <c r="R24">
-        <v>87.29663924630088</v>
+        <v>867.731435420486</v>
       </c>
       <c r="S24">
-        <v>0.0008633345316532425</v>
+        <v>0.0008188816869935157</v>
       </c>
       <c r="T24">
-        <v>0.0008633345316532425</v>
+        <v>0.0008188816869935158</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.350623411838624</v>
+        <v>0.3870006666666667</v>
       </c>
       <c r="H25">
-        <v>0.350623411838624</v>
+        <v>1.161002</v>
       </c>
       <c r="I25">
-        <v>0.002197115745166725</v>
+        <v>0.002112839463995207</v>
       </c>
       <c r="J25">
-        <v>0.002197115745166725</v>
+        <v>0.002112839463995207</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N25">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O25">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P25">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q25">
-        <v>63.78248016415885</v>
+        <v>72.34245503172424</v>
       </c>
       <c r="R25">
-        <v>63.78248016415885</v>
+        <v>651.0820952855181</v>
       </c>
       <c r="S25">
-        <v>0.0006307873718350465</v>
+        <v>0.0006144288230151755</v>
       </c>
       <c r="T25">
-        <v>0.0006307873718350465</v>
+        <v>0.0006144288230151755</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.350623411838624</v>
+        <v>0.3870006666666667</v>
       </c>
       <c r="H26">
-        <v>0.350623411838624</v>
+        <v>1.161002</v>
       </c>
       <c r="I26">
-        <v>0.002197115745166725</v>
+        <v>0.002112839463995207</v>
       </c>
       <c r="J26">
-        <v>0.002197115745166725</v>
+        <v>0.002112839463995207</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N26">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O26">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P26">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q26">
-        <v>5.430081220568217</v>
+        <v>6.757202436294224</v>
       </c>
       <c r="R26">
-        <v>5.430081220568217</v>
+        <v>60.81482192664802</v>
       </c>
       <c r="S26">
-        <v>5.370168505767508E-05</v>
+        <v>5.73911949488975E-05</v>
       </c>
       <c r="T26">
-        <v>5.370168505767508E-05</v>
+        <v>5.739119494889751E-05</v>
       </c>
     </row>
   </sheetData>
